--- a/tech_management/team_inovation.xlsx
+++ b/tech_management/team_inovation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sliang\development\github\laolang_tutorials\tech_management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF83813A-D241-4620-BA6A-070D783DA397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75DF3F51-78B0-422A-BF4F-67926D58762D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve">architecture pattern(架构模式)
 </t>
@@ -94,6 +94,23 @@
     <t>1. presentation skills in demonstration.
 2. communication skills in cross team.
 3. summarizing skills</t>
+  </si>
+  <si>
+    <t>Business Continuity(业务可持续性)</t>
+  </si>
+  <si>
+    <t>24 * 7 operation(全天候运维)</t>
+  </si>
+  <si>
+    <t>new business incresing(新业务增长)</t>
+  </si>
+  <si>
+    <t>1. excellent operation for existing systems which support key business  
+2. shorten operation resources by operation automation and distribute operation work in global resources.</t>
+  </si>
+  <si>
+    <t>1. active to hunt and participate key business project
+2. try to own some key busines project end-to-end by combing all resources in Shenzhen EDP</t>
   </si>
 </sst>
 </file>
@@ -161,11 +178,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -174,6 +188,13 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -456,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -471,84 +492,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="5"/>
+      <c r="B9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
